--- a/ICU_LinkTestSuite/链路层测试用例_v1.0.0.xlsx
+++ b/ICU_LinkTestSuite/链路层测试用例_v1.0.0.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="1064">
   <si>
     <t>版本</t>
   </si>
@@ -8829,10 +8829,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>测试SoC正常通信中，发送窗口被卡满时，收到包长错误的包（PL小于实际数据量），是否会丢弃</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>修改步骤5，发送PSN错误的包</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -8857,10 +8853,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>测试SoC正常通信中，发送窗口被卡满时，收到OutOfRecvWin的包，是否会丢弃</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>被测试端为SoC/MCU：（纯SYN包、Reset包、EAK包、ACK包、NAK包）
 同 APP—FCW-IE001
 被测试端为SoC/MCU：（Other）
@@ -8873,12 +8865,109 @@
 6.上位机收到SoC/MCU发送对应的ACK；</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>测试SoC正常通信中，发送窗口被卡满时，收到OutOfRecvWin的包，是否会丢弃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试SoC正常通信中，发送窗口被卡满时，收到PAN不正确的NoNAK包，是否正常处理包中的PSN字段</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被测试端为SoC/MCU：
+各操作步骤正确完成，等待1s后，被测试端不再发送任何数据包；</t>
+    </r>
+  </si>
+  <si>
+    <t>建议链路层不检测非法SessionID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试SoC正常通信中，发送窗口被卡满时，收到包长错误的包（PL小于实际数据量），是否会丢弃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试SoC正常通信中，发送窗口被卡满时，收到HeaderChecksum错误的包，是否会丢弃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被测试端为SoC/MCU：
+各操作步骤正确完成，等待1s后，被测试端不再发送任何数据包；</t>
+    </r>
+  </si>
+  <si>
+    <t>PayloadData错误的包，所有用例删除</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试SoC正常通信中，发送窗口被卡满时，收到PayloadChecksum错误的包，是否会丢弃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试SoC正常通信中，发送窗口被卡满时，收到SYN+PayloadData错误的包，是否会丢弃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试SoC正常通信中，发送窗口被卡满时，收到SYN+ACK+PayloadData错误的包，是否会丢弃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试SoC端不会发送超过MCU配置的MRPL大小的数据包</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试SoC不接收超过配置的MRPL大小的数据包</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被测试端为SoC/MCU：
+各操作步骤正确完成，等待1s后，被测试端不再发送任何数据包</t>
+    </r>
+  </si>
+  <si>
+    <t>测试SoC正常通信中，发送窗口被卡满时，收到超过配置的MRPL大小的数据包，会直接丢弃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送2个request，使用相同的PSN。
+对端应该丢弃第二个，以接收到的第一个PSN为准
+是这个意思，只响应了第一个 测试请求包？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试SoC在连续收到相同PSN的不同数据包时，仅仅处理第一个数据包的数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9172,6 +9261,20 @@
       <color theme="0"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -10025,6 +10128,53 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10049,83 +10199,17 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -10175,23 +10259,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10202,11 +10352,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10224,59 +10380,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="2" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10617,14 +10720,14 @@
       <c r="D3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="196" t="s">
+      <c r="E3" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="195"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="212"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1">
       <c r="A4" s="46"/>
@@ -10642,81 +10745,81 @@
       <c r="A7" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="195"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="212"/>
     </row>
     <row r="8" spans="1:10" ht="164.25" customHeight="1">
       <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="197" t="s">
+      <c r="B8" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="195"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="212"/>
     </row>
     <row r="9" spans="1:10" ht="129" customHeight="1">
       <c r="A9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="195"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="212"/>
     </row>
     <row r="12" spans="1:10" ht="408.95" customHeight="1">
       <c r="A12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="210" t="s">
         <v>737</v>
       </c>
-      <c r="C12" s="194"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="195"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="211"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="212"/>
     </row>
     <row r="15" spans="1:10" ht="108" customHeight="1">
       <c r="A15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="193" t="s">
+      <c r="B15" s="210" t="s">
         <v>434</v>
       </c>
-      <c r="C15" s="194"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="195"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10772,17 +10875,17 @@
       <c r="G1" s="77"/>
       <c r="H1" s="154"/>
       <c r="I1" s="156"/>
-      <c r="J1" s="198" t="s">
+      <c r="J1" s="215" t="s">
         <v>831</v>
       </c>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="198" t="s">
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="199"/>
-      <c r="P1" s="200"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="217"/>
       <c r="Q1" s="154"/>
       <c r="R1" s="36"/>
     </row>
@@ -15049,13 +15152,13 @@
       <c r="R103" s="32"/>
     </row>
     <row r="104" spans="1:18" ht="114.75" customHeight="1">
-      <c r="A104" s="262" t="s">
+      <c r="A104" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="B104" s="262" t="s">
+      <c r="B104" s="193" t="s">
         <v>178</v>
       </c>
-      <c r="C104" s="262" t="s">
+      <c r="C104" s="193" t="s">
         <v>121</v>
       </c>
       <c r="D104" s="122" t="s">
@@ -15089,13 +15192,13 @@
       <c r="R104" s="32"/>
     </row>
     <row r="105" spans="1:18" ht="164.25" customHeight="1">
-      <c r="A105" s="262" t="s">
+      <c r="A105" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="262" t="s">
+      <c r="B105" s="193" t="s">
         <v>178</v>
       </c>
-      <c r="C105" s="262" t="s">
+      <c r="C105" s="193" t="s">
         <v>121</v>
       </c>
       <c r="D105" s="122" t="s">
@@ -15129,13 +15232,13 @@
       <c r="R105" s="32"/>
     </row>
     <row r="106" spans="1:18" ht="129.75" customHeight="1">
-      <c r="A106" s="262" t="s">
+      <c r="A106" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="262" t="s">
+      <c r="B106" s="193" t="s">
         <v>178</v>
       </c>
-      <c r="C106" s="262" t="s">
+      <c r="C106" s="193" t="s">
         <v>121</v>
       </c>
       <c r="D106" s="122" t="s">
@@ -15167,13 +15270,13 @@
       <c r="R106" s="32"/>
     </row>
     <row r="107" spans="1:18" ht="162.75" customHeight="1">
-      <c r="A107" s="262" t="s">
+      <c r="A107" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="B107" s="262" t="s">
+      <c r="B107" s="193" t="s">
         <v>178</v>
       </c>
-      <c r="C107" s="262" t="s">
+      <c r="C107" s="193" t="s">
         <v>121</v>
       </c>
       <c r="D107" s="116" t="s">
@@ -15281,13 +15384,13 @@
       <c r="R109" s="154"/>
     </row>
     <row r="110" spans="1:18" ht="148.5" customHeight="1">
-      <c r="A110" s="262" t="s">
+      <c r="A110" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="262" t="s">
+      <c r="B110" s="193" t="s">
         <v>178</v>
       </c>
-      <c r="C110" s="262" t="s">
+      <c r="C110" s="193" t="s">
         <v>121</v>
       </c>
       <c r="D110" s="122" t="s">
@@ -15319,13 +15422,13 @@
       <c r="R110" s="32"/>
     </row>
     <row r="111" spans="1:18" ht="150.75" customHeight="1">
-      <c r="A111" s="262" t="s">
+      <c r="A111" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="262" t="s">
+      <c r="B111" s="193" t="s">
         <v>178</v>
       </c>
-      <c r="C111" s="262" t="s">
+      <c r="C111" s="193" t="s">
         <v>121</v>
       </c>
       <c r="D111" s="122" t="s">
@@ -16469,8 +16572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16504,17 +16607,17 @@
       <c r="G1" s="77"/>
       <c r="H1" s="154"/>
       <c r="I1" s="156"/>
-      <c r="J1" s="198" t="s">
+      <c r="J1" s="215" t="s">
         <v>831</v>
       </c>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="198" t="s">
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="199"/>
-      <c r="P1" s="200"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="217"/>
       <c r="Q1" s="154"/>
       <c r="R1" s="36"/>
     </row>
@@ -16575,16 +16678,16 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="148.5">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="277" t="s">
+      <c r="B3" s="208" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="208" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="271" t="s">
+      <c r="D3" s="202" t="s">
         <v>238</v>
       </c>
       <c r="E3" s="114" t="s">
@@ -16619,16 +16722,16 @@
       <c r="R3" s="32"/>
     </row>
     <row r="4" spans="1:18" ht="148.5">
-      <c r="A4" s="277" t="s">
+      <c r="A4" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="277" t="s">
+      <c r="B4" s="208" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="208" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="271" t="s">
+      <c r="D4" s="202" t="s">
         <v>241</v>
       </c>
       <c r="E4" s="114" t="s">
@@ -16663,16 +16766,16 @@
       <c r="R4" s="32"/>
     </row>
     <row r="5" spans="1:18" ht="148.5">
-      <c r="A5" s="277" t="s">
+      <c r="A5" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="277" t="s">
+      <c r="B5" s="208" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="277" t="s">
+      <c r="C5" s="208" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="272" t="s">
+      <c r="D5" s="203" t="s">
         <v>243</v>
       </c>
       <c r="E5" s="114" t="s">
@@ -16707,16 +16810,16 @@
       <c r="R5" s="32"/>
     </row>
     <row r="6" spans="1:18" ht="135">
-      <c r="A6" s="278" t="s">
+      <c r="A6" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="278" t="s">
+      <c r="B6" s="209" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="278" t="s">
+      <c r="C6" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="271" t="s">
+      <c r="D6" s="202" t="s">
         <v>245</v>
       </c>
       <c r="E6" s="171" t="s">
@@ -16728,7 +16831,7 @@
       <c r="G6" s="171" t="s">
         <v>1017</v>
       </c>
-      <c r="H6" s="268" t="s">
+      <c r="H6" s="199" t="s">
         <v>515</v>
       </c>
       <c r="I6" s="171" t="s">
@@ -16737,30 +16840,30 @@
       <c r="J6" s="171" t="s">
         <v>1023</v>
       </c>
-      <c r="K6" s="263" t="s">
+      <c r="K6" s="194" t="s">
         <v>1018</v>
       </c>
-      <c r="L6" s="264"/>
-      <c r="M6" s="264"/>
-      <c r="N6" s="264"/>
-      <c r="O6" s="265" t="s">
+      <c r="L6" s="195"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="195"/>
+      <c r="O6" s="196" t="s">
         <v>815</v>
       </c>
-      <c r="P6" s="266"/>
-      <c r="Q6" s="267"/>
-      <c r="R6" s="267"/>
+      <c r="P6" s="197"/>
+      <c r="Q6" s="198"/>
+      <c r="R6" s="198"/>
     </row>
     <row r="7" spans="1:18" ht="255" customHeight="1">
-      <c r="A7" s="277" t="s">
+      <c r="A7" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="277" t="s">
+      <c r="B7" s="208" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="277" t="s">
+      <c r="C7" s="208" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="272" t="s">
+      <c r="D7" s="203" t="s">
         <v>247</v>
       </c>
       <c r="E7" s="114" t="s">
@@ -16795,16 +16898,16 @@
       <c r="R7" s="32"/>
     </row>
     <row r="8" spans="1:18" ht="313.5" customHeight="1">
-      <c r="A8" s="276" t="s">
+      <c r="A8" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="276" t="s">
+      <c r="B8" s="207" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="276" t="s">
+      <c r="C8" s="207" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="270" t="s">
+      <c r="D8" s="201" t="s">
         <v>250</v>
       </c>
       <c r="E8" s="114" t="s">
@@ -16839,16 +16942,16 @@
       <c r="R8" s="32"/>
     </row>
     <row r="9" spans="1:18" ht="237" customHeight="1">
-      <c r="A9" s="276" t="s">
+      <c r="A9" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="276" t="s">
+      <c r="B9" s="207" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="276" t="s">
+      <c r="C9" s="207" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="270" t="s">
+      <c r="D9" s="201" t="s">
         <v>252</v>
       </c>
       <c r="E9" s="114" t="s">
@@ -16883,16 +16986,16 @@
       <c r="R9" s="32"/>
     </row>
     <row r="10" spans="1:18" ht="175.5">
-      <c r="A10" s="276" t="s">
+      <c r="A10" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="276" t="s">
+      <c r="B10" s="207" t="s">
         <v>237</v>
       </c>
-      <c r="C10" s="276" t="s">
+      <c r="C10" s="207" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="270" t="s">
+      <c r="D10" s="201" t="s">
         <v>253</v>
       </c>
       <c r="E10" s="114" t="s">
@@ -16907,7 +17010,7 @@
       <c r="H10" s="114" t="s">
         <v>1024</v>
       </c>
-      <c r="I10" s="269"/>
+      <c r="I10" s="200"/>
       <c r="J10" s="114" t="s">
         <v>1032</v>
       </c>
@@ -16925,16 +17028,16 @@
       <c r="R10" s="32"/>
     </row>
     <row r="11" spans="1:18" ht="175.5">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="276" t="s">
+      <c r="B11" s="207" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="276" t="s">
+      <c r="C11" s="207" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="270" t="s">
+      <c r="D11" s="201" t="s">
         <v>254</v>
       </c>
       <c r="E11" s="114" t="s">
@@ -16969,16 +17072,16 @@
       <c r="R11" s="32"/>
     </row>
     <row r="12" spans="1:18" ht="313.5" customHeight="1">
-      <c r="A12" s="276" t="s">
+      <c r="A12" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="276" t="s">
+      <c r="B12" s="207" t="s">
         <v>237</v>
       </c>
-      <c r="C12" s="276" t="s">
+      <c r="C12" s="207" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="270" t="s">
+      <c r="D12" s="201" t="s">
         <v>255</v>
       </c>
       <c r="E12" s="114" t="s">
@@ -17011,16 +17114,16 @@
       <c r="R12" s="32"/>
     </row>
     <row r="13" spans="1:18" ht="201" customHeight="1">
-      <c r="A13" s="275" t="s">
+      <c r="A13" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="275" t="s">
+      <c r="B13" s="206" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="275" t="s">
+      <c r="C13" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="273" t="s">
+      <c r="D13" s="204" t="s">
         <v>256</v>
       </c>
       <c r="E13" s="114" t="s">
@@ -17049,16 +17152,16 @@
       <c r="R13" s="32"/>
     </row>
     <row r="14" spans="1:18" ht="139.5" customHeight="1">
-      <c r="A14" s="275" t="s">
+      <c r="A14" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="275" t="s">
+      <c r="B14" s="206" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="275" t="s">
+      <c r="C14" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="273" t="s">
+      <c r="D14" s="204" t="s">
         <v>257</v>
       </c>
       <c r="E14" s="114" t="s">
@@ -17089,16 +17192,16 @@
       <c r="R14" s="32"/>
     </row>
     <row r="15" spans="1:18" ht="127.5" customHeight="1">
-      <c r="A15" s="275" t="s">
+      <c r="A15" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="275" t="s">
+      <c r="B15" s="206" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="275" t="s">
+      <c r="C15" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="273" t="s">
+      <c r="D15" s="204" t="s">
         <v>260</v>
       </c>
       <c r="E15" s="114" t="s">
@@ -17129,16 +17232,16 @@
       <c r="R15" s="32"/>
     </row>
     <row r="16" spans="1:18" ht="127.5" customHeight="1">
-      <c r="A16" s="275" t="s">
+      <c r="A16" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="275" t="s">
+      <c r="B16" s="206" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="275" t="s">
+      <c r="C16" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="273" t="s">
+      <c r="D16" s="204" t="s">
         <v>261</v>
       </c>
       <c r="E16" s="114" t="s">
@@ -17167,16 +17270,16 @@
       <c r="R16" s="32"/>
     </row>
     <row r="17" spans="1:18" ht="157.5" customHeight="1">
-      <c r="A17" s="275" t="s">
+      <c r="A17" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="275" t="s">
+      <c r="B17" s="206" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="275" t="s">
+      <c r="C17" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="273" t="s">
+      <c r="D17" s="204" t="s">
         <v>262</v>
       </c>
       <c r="E17" s="114" t="s">
@@ -17193,7 +17296,7 @@
       </c>
       <c r="I17" s="114"/>
       <c r="J17" s="114" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="K17" s="158"/>
       <c r="L17" s="139"/>
@@ -17205,16 +17308,16 @@
       <c r="R17" s="32"/>
     </row>
     <row r="18" spans="1:18" ht="256.5" customHeight="1">
-      <c r="A18" s="275" t="s">
+      <c r="A18" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="275" t="s">
+      <c r="B18" s="206" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="275" t="s">
+      <c r="C18" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="273" t="s">
+      <c r="D18" s="204" t="s">
         <v>263</v>
       </c>
       <c r="E18" s="114" t="s">
@@ -17224,19 +17327,19 @@
         <v>770</v>
       </c>
       <c r="G18" s="114" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H18" s="126" t="s">
         <v>1024</v>
       </c>
       <c r="I18" s="114" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="J18" s="114" t="s">
         <v>1047</v>
       </c>
       <c r="K18" s="158" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L18" s="139"/>
       <c r="M18" s="139"/>
@@ -17249,16 +17352,16 @@
       <c r="R18" s="32"/>
     </row>
     <row r="19" spans="1:18" ht="246" customHeight="1">
-      <c r="A19" s="275" t="s">
+      <c r="A19" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="275" t="s">
+      <c r="B19" s="206" t="s">
         <v>237</v>
       </c>
-      <c r="C19" s="275" t="s">
+      <c r="C19" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="273" t="s">
+      <c r="D19" s="204" t="s">
         <v>264</v>
       </c>
       <c r="E19" s="114" t="s">
@@ -17268,13 +17371,15 @@
         <v>525</v>
       </c>
       <c r="G19" s="114" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H19" s="126" t="s">
         <v>1024</v>
       </c>
-      <c r="I19" s="76"/>
-      <c r="J19" s="32"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114" t="s">
+        <v>1048</v>
+      </c>
       <c r="K19" s="158" t="s">
         <v>827</v>
       </c>
@@ -17288,17 +17393,17 @@
       <c r="Q19" s="32"/>
       <c r="R19" s="32"/>
     </row>
-    <row r="20" spans="1:18" ht="94.5">
-      <c r="A20" s="275" t="s">
+    <row r="20" spans="1:18" ht="136.5" customHeight="1">
+      <c r="A20" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="275" t="s">
+      <c r="B20" s="206" t="s">
         <v>237</v>
       </c>
-      <c r="C20" s="275" t="s">
+      <c r="C20" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="273" t="s">
+      <c r="D20" s="204" t="s">
         <v>267</v>
       </c>
       <c r="E20" s="114" t="s">
@@ -17310,11 +17415,13 @@
       <c r="G20" s="114" t="s">
         <v>259</v>
       </c>
-      <c r="H20" s="174" t="s">
-        <v>251</v>
-      </c>
-      <c r="I20" s="76"/>
-      <c r="J20" s="32"/>
+      <c r="H20" s="126" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I20" s="112" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J20" s="114"/>
       <c r="K20" s="158"/>
       <c r="L20" s="139"/>
       <c r="M20" s="163"/>
@@ -17324,17 +17431,17 @@
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
     </row>
-    <row r="21" spans="1:18" ht="94.5">
-      <c r="A21" s="275" t="s">
+    <row r="21" spans="1:18" ht="121.5" customHeight="1">
+      <c r="A21" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="275" t="s">
+      <c r="B21" s="206" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="275" t="s">
+      <c r="C21" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="273" t="s">
+      <c r="D21" s="204" t="s">
         <v>268</v>
       </c>
       <c r="E21" s="114" t="s">
@@ -17346,11 +17453,13 @@
       <c r="G21" s="114" t="s">
         <v>259</v>
       </c>
-      <c r="H21" s="174" t="s">
-        <v>251</v>
-      </c>
-      <c r="I21" s="76"/>
-      <c r="J21" s="32"/>
+      <c r="H21" s="126" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114" t="s">
+        <v>1052</v>
+      </c>
       <c r="K21" s="158"/>
       <c r="L21" s="139"/>
       <c r="M21" s="163"/>
@@ -17360,17 +17469,17 @@
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
     </row>
-    <row r="22" spans="1:18" ht="94.5">
-      <c r="A22" s="275" t="s">
+    <row r="22" spans="1:18" ht="148.5" customHeight="1">
+      <c r="A22" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="275" t="s">
+      <c r="B22" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="C22" s="275" t="s">
+      <c r="C22" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="273" t="s">
+      <c r="D22" s="125" t="s">
         <v>269</v>
       </c>
       <c r="E22" s="112" t="s">
@@ -17382,33 +17491,33 @@
       <c r="G22" s="112" t="s">
         <v>259</v>
       </c>
-      <c r="H22" s="174" t="s">
-        <v>251</v>
+      <c r="H22" s="140" t="s">
+        <v>1053</v>
       </c>
       <c r="I22" s="112" t="s">
-        <v>616</v>
-      </c>
-      <c r="J22" s="32"/>
+        <v>1054</v>
+      </c>
+      <c r="J22" s="112"/>
       <c r="K22" s="157"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="140"/>
       <c r="O22" s="150"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-    </row>
-    <row r="23" spans="1:18" ht="94.5">
-      <c r="A23" s="275" t="s">
+      <c r="P22" s="183"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+    </row>
+    <row r="23" spans="1:18" ht="115.5" customHeight="1">
+      <c r="A23" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="275" t="s">
+      <c r="B23" s="206" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="275" t="s">
+      <c r="C23" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="274" t="s">
+      <c r="D23" s="205" t="s">
         <v>270</v>
       </c>
       <c r="E23" s="114" t="s">
@@ -17420,13 +17529,15 @@
       <c r="G23" s="114" t="s">
         <v>259</v>
       </c>
-      <c r="H23" s="174" t="s">
-        <v>251</v>
-      </c>
-      <c r="I23" s="76" t="s">
+      <c r="H23" s="126" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I23" s="114" t="s">
         <v>617</v>
       </c>
-      <c r="J23" s="32"/>
+      <c r="J23" s="114" t="s">
+        <v>1055</v>
+      </c>
       <c r="K23" s="158"/>
       <c r="L23" s="139"/>
       <c r="M23" s="163"/>
@@ -17437,16 +17548,16 @@
       <c r="R23" s="32"/>
     </row>
     <row r="24" spans="1:18" ht="94.5">
-      <c r="A24" s="275" t="s">
+      <c r="A24" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="275" t="s">
+      <c r="B24" s="206" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="275" t="s">
+      <c r="C24" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="274" t="s">
+      <c r="D24" s="205" t="s">
         <v>271</v>
       </c>
       <c r="E24" s="114" t="s">
@@ -17458,13 +17569,15 @@
       <c r="G24" s="114" t="s">
         <v>259</v>
       </c>
-      <c r="H24" s="174" t="s">
-        <v>251</v>
-      </c>
-      <c r="I24" s="76" t="s">
+      <c r="H24" s="126" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I24" s="114" t="s">
         <v>618</v>
       </c>
-      <c r="J24" s="32"/>
+      <c r="J24" s="114" t="s">
+        <v>1056</v>
+      </c>
       <c r="K24" s="158"/>
       <c r="L24" s="139"/>
       <c r="M24" s="163"/>
@@ -17474,17 +17587,17 @@
       <c r="Q24" s="32"/>
       <c r="R24" s="32"/>
     </row>
-    <row r="25" spans="1:18" ht="121.5">
-      <c r="A25" s="275" t="s">
+    <row r="25" spans="1:18" ht="169.5" customHeight="1">
+      <c r="A25" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="275" t="s">
+      <c r="B25" s="206" t="s">
         <v>237</v>
       </c>
-      <c r="C25" s="275" t="s">
+      <c r="C25" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="274" t="s">
+      <c r="D25" s="205" t="s">
         <v>272</v>
       </c>
       <c r="E25" s="114" t="s">
@@ -17496,13 +17609,15 @@
       <c r="G25" s="114" t="s">
         <v>620</v>
       </c>
-      <c r="H25" s="174" t="s">
-        <v>251</v>
-      </c>
-      <c r="I25" s="76" t="s">
+      <c r="H25" s="126" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I25" s="114" t="s">
         <v>615</v>
       </c>
-      <c r="J25" s="32"/>
+      <c r="J25" s="114" t="s">
+        <v>1057</v>
+      </c>
       <c r="K25" s="158"/>
       <c r="L25" s="139"/>
       <c r="M25" s="163"/>
@@ -17512,17 +17627,17 @@
       <c r="Q25" s="32"/>
       <c r="R25" s="32"/>
     </row>
-    <row r="26" spans="1:18" ht="81">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:18" ht="117" customHeight="1">
+      <c r="A26" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="208" t="s">
         <v>237</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="208" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="203" t="s">
         <v>273</v>
       </c>
       <c r="E26" s="114" t="s">
@@ -17534,13 +17649,15 @@
       <c r="G26" s="114" t="s">
         <v>622</v>
       </c>
-      <c r="H26" s="140" t="s">
+      <c r="H26" s="126" t="s">
         <v>515</v>
       </c>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="114" t="s">
         <v>623</v>
       </c>
-      <c r="J26" s="32"/>
+      <c r="J26" s="114" t="s">
+        <v>1058</v>
+      </c>
       <c r="K26" s="158"/>
       <c r="L26" s="139"/>
       <c r="M26" s="163"/>
@@ -17550,17 +17667,17 @@
       <c r="Q26" s="32"/>
       <c r="R26" s="32"/>
     </row>
-    <row r="27" spans="1:18" ht="94.5">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:18" ht="133.5" customHeight="1">
+      <c r="A27" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="208" t="s">
         <v>237</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="208" t="s">
         <v>166</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="203" t="s">
         <v>275</v>
       </c>
       <c r="E27" s="114" t="s">
@@ -17572,13 +17689,15 @@
       <c r="G27" s="114" t="s">
         <v>625</v>
       </c>
-      <c r="H27" s="174" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="76" t="s">
+      <c r="H27" s="126" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I27" s="114" t="s">
         <v>626</v>
       </c>
-      <c r="J27" s="32"/>
+      <c r="J27" s="114" t="s">
+        <v>1059</v>
+      </c>
       <c r="K27" s="158"/>
       <c r="L27" s="139"/>
       <c r="M27" s="163"/>
@@ -17589,16 +17708,16 @@
       <c r="R27" s="32"/>
     </row>
     <row r="28" spans="1:18" ht="162">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="208" t="s">
         <v>237</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="208" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="116" t="s">
+      <c r="D28" s="203" t="s">
         <v>277</v>
       </c>
       <c r="E28" s="114" t="s">
@@ -17610,13 +17729,15 @@
       <c r="G28" s="114" t="s">
         <v>628</v>
       </c>
-      <c r="H28" s="174" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" s="76" t="s">
+      <c r="H28" s="126" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I28" s="114" t="s">
         <v>626</v>
       </c>
-      <c r="J28" s="32"/>
+      <c r="J28" s="114" t="s">
+        <v>1061</v>
+      </c>
       <c r="K28" s="158"/>
       <c r="L28" s="139"/>
       <c r="M28" s="163"/>
@@ -17626,17 +17747,17 @@
       <c r="Q28" s="32"/>
       <c r="R28" s="32"/>
     </row>
-    <row r="29" spans="1:18" ht="135">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:18" ht="183" customHeight="1">
+      <c r="A29" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="208" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="208" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="116" t="s">
+      <c r="D29" s="203" t="s">
         <v>278</v>
       </c>
       <c r="E29" s="114" t="s">
@@ -17648,13 +17769,15 @@
       <c r="G29" s="114" t="s">
         <v>630</v>
       </c>
-      <c r="H29" s="174" t="s">
-        <v>111</v>
-      </c>
-      <c r="I29" s="76" t="s">
-        <v>637</v>
-      </c>
-      <c r="J29" s="32"/>
+      <c r="H29" s="126" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I29" s="114" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J29" s="114" t="s">
+        <v>1063</v>
+      </c>
       <c r="K29" s="158" t="s">
         <v>814</v>
       </c>
@@ -17718,16 +17841,16 @@
       <c r="G1" s="77"/>
       <c r="H1" s="27"/>
       <c r="I1" s="156"/>
-      <c r="J1" s="198" t="s">
+      <c r="J1" s="215" t="s">
         <v>831</v>
       </c>
-      <c r="K1" s="199"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="198" t="s">
+      <c r="K1" s="216"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="199"/>
-      <c r="O1" s="200"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="217"/>
       <c r="P1" s="35"/>
       <c r="Q1" s="36"/>
     </row>
@@ -25053,123 +25176,123 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" s="53" customFormat="1">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="253" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="234" t="s">
+      <c r="C2" s="229" t="s">
         <v>303</v>
       </c>
-      <c r="D2" s="237" t="s">
+      <c r="D2" s="232" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="201" t="s">
+      <c r="E2" s="250" t="s">
         <v>368</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="203"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="251"/>
+      <c r="O2" s="251"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="252"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="B3" s="205"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="240" t="s">
+      <c r="B3" s="238"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="235" t="s">
         <v>297</v>
       </c>
-      <c r="F3" s="210" t="s">
+      <c r="F3" s="242" t="s">
         <v>300</v>
       </c>
-      <c r="G3" s="211"/>
-      <c r="H3" s="210" t="s">
+      <c r="G3" s="243"/>
+      <c r="H3" s="242" t="s">
         <v>313</v>
       </c>
-      <c r="I3" s="213"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="210" t="s">
+      <c r="I3" s="259"/>
+      <c r="J3" s="243"/>
+      <c r="K3" s="242" t="s">
         <v>298</v>
       </c>
-      <c r="L3" s="211"/>
-      <c r="M3" s="210" t="s">
+      <c r="L3" s="243"/>
+      <c r="M3" s="242" t="s">
         <v>314</v>
       </c>
-      <c r="N3" s="211"/>
-      <c r="O3" s="208" t="s">
+      <c r="N3" s="243"/>
+      <c r="O3" s="256" t="s">
         <v>299</v>
       </c>
-      <c r="P3" s="208" t="s">
+      <c r="P3" s="256" t="s">
         <v>318</v>
       </c>
-      <c r="Q3" s="208" t="s">
+      <c r="Q3" s="256" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="B4" s="205"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="241"/>
-      <c r="F4" s="205" t="s">
+      <c r="B4" s="238"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="238" t="s">
         <v>362</v>
       </c>
-      <c r="G4" s="215" t="s">
+      <c r="G4" s="240" t="s">
         <v>363</v>
       </c>
-      <c r="H4" s="231" t="s">
+      <c r="H4" s="226" t="s">
         <v>370</v>
       </c>
-      <c r="I4" s="233"/>
-      <c r="J4" s="225" t="s">
+      <c r="I4" s="228"/>
+      <c r="J4" s="218" t="s">
         <v>372</v>
       </c>
-      <c r="K4" s="231" t="s">
+      <c r="K4" s="226" t="s">
         <v>371</v>
       </c>
-      <c r="L4" s="225" t="s">
+      <c r="L4" s="218" t="s">
         <v>373</v>
       </c>
-      <c r="M4" s="231" t="s">
+      <c r="M4" s="226" t="s">
         <v>371</v>
       </c>
-      <c r="N4" s="225" t="s">
+      <c r="N4" s="218" t="s">
         <v>373</v>
       </c>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="209"/>
+      <c r="O4" s="257"/>
+      <c r="P4" s="257"/>
+      <c r="Q4" s="257"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="B5" s="205"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="244"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="241"/>
       <c r="H5" s="72" t="s">
         <v>361</v>
       </c>
       <c r="I5" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="J5" s="226"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="232"/>
-      <c r="N5" s="226"/>
+      <c r="J5" s="219"/>
+      <c r="K5" s="227"/>
+      <c r="L5" s="219"/>
+      <c r="M5" s="227"/>
+      <c r="N5" s="219"/>
       <c r="O5" s="78"/>
       <c r="P5" s="78"/>
       <c r="Q5" s="78"/>
     </row>
     <row r="6" spans="1:17" ht="27">
-      <c r="B6" s="206"/>
+      <c r="B6" s="254"/>
       <c r="C6" s="55" t="s">
         <v>360</v>
       </c>
@@ -25185,19 +25308,19 @@
       <c r="G6" s="92" t="s">
         <v>365</v>
       </c>
-      <c r="H6" s="214" t="s">
+      <c r="H6" s="246" t="s">
         <v>320</v>
       </c>
-      <c r="I6" s="214"/>
-      <c r="J6" s="215"/>
-      <c r="K6" s="204" t="s">
+      <c r="I6" s="246"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="253" t="s">
         <v>320</v>
       </c>
-      <c r="L6" s="212"/>
-      <c r="M6" s="204" t="s">
+      <c r="L6" s="258"/>
+      <c r="M6" s="253" t="s">
         <v>320</v>
       </c>
-      <c r="N6" s="212"/>
+      <c r="N6" s="258"/>
       <c r="O6" s="88" t="s">
         <v>320</v>
       </c>
@@ -25209,7 +25332,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="27">
-      <c r="B7" s="206"/>
+      <c r="B7" s="254"/>
       <c r="C7" s="57" t="s">
         <v>305</v>
       </c>
@@ -25225,19 +25348,19 @@
       <c r="G7" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="H7" s="214" t="s">
+      <c r="H7" s="246" t="s">
         <v>331</v>
       </c>
-      <c r="I7" s="214"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="205" t="s">
+      <c r="I7" s="246"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="238" t="s">
         <v>331</v>
       </c>
-      <c r="L7" s="215"/>
-      <c r="M7" s="205" t="s">
+      <c r="L7" s="240"/>
+      <c r="M7" s="238" t="s">
         <v>331</v>
       </c>
-      <c r="N7" s="215"/>
+      <c r="N7" s="240"/>
       <c r="O7" s="88" t="s">
         <v>331</v>
       </c>
@@ -25250,7 +25373,7 @@
     </row>
     <row r="8" spans="1:17" ht="27">
       <c r="A8" s="53"/>
-      <c r="B8" s="206"/>
+      <c r="B8" s="254"/>
       <c r="C8" s="55" t="s">
         <v>343</v>
       </c>
@@ -25260,15 +25383,15 @@
       <c r="E8" s="88" t="s">
         <v>320</v>
       </c>
-      <c r="F8" s="216" t="s">
+      <c r="F8" s="244" t="s">
         <v>324</v>
       </c>
-      <c r="G8" s="217"/>
-      <c r="H8" s="222" t="s">
+      <c r="G8" s="245"/>
+      <c r="H8" s="247" t="s">
         <v>346</v>
       </c>
-      <c r="I8" s="222"/>
-      <c r="J8" s="217"/>
+      <c r="I8" s="247"/>
+      <c r="J8" s="245"/>
       <c r="K8" s="94" t="s">
         <v>367</v>
       </c>
@@ -25292,7 +25415,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="27">
-      <c r="B9" s="206"/>
+      <c r="B9" s="254"/>
       <c r="C9" s="55" t="s">
         <v>342</v>
       </c>
@@ -25302,10 +25425,10 @@
       <c r="E9" s="88" t="s">
         <v>320</v>
       </c>
-      <c r="F9" s="216" t="s">
+      <c r="F9" s="244" t="s">
         <v>324</v>
       </c>
-      <c r="G9" s="217"/>
+      <c r="G9" s="245"/>
       <c r="H9" s="60" t="s">
         <v>366</v>
       </c>
@@ -25315,14 +25438,14 @@
       <c r="J9" s="87" t="s">
         <v>324</v>
       </c>
-      <c r="K9" s="216" t="s">
+      <c r="K9" s="244" t="s">
         <v>324</v>
       </c>
-      <c r="L9" s="217"/>
-      <c r="M9" s="216" t="s">
+      <c r="L9" s="245"/>
+      <c r="M9" s="244" t="s">
         <v>324</v>
       </c>
-      <c r="N9" s="217"/>
+      <c r="N9" s="245"/>
       <c r="O9" s="95" t="s">
         <v>324</v>
       </c>
@@ -25334,7 +25457,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="B10" s="207"/>
+      <c r="B10" s="255"/>
       <c r="C10" s="61" t="s">
         <v>323</v>
       </c>
@@ -25344,15 +25467,15 @@
       <c r="E10" s="89" t="s">
         <v>320</v>
       </c>
-      <c r="F10" s="218" t="s">
+      <c r="F10" s="260" t="s">
         <v>324</v>
       </c>
-      <c r="G10" s="219"/>
-      <c r="H10" s="223" t="s">
+      <c r="G10" s="261"/>
+      <c r="H10" s="248" t="s">
         <v>358</v>
       </c>
-      <c r="I10" s="223"/>
-      <c r="J10" s="224"/>
+      <c r="I10" s="248"/>
+      <c r="J10" s="249"/>
       <c r="K10" s="220" t="s">
         <v>325</v>
       </c>
@@ -25372,24 +25495,24 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="55.5" customHeight="1">
-      <c r="B11" s="227" t="s">
+      <c r="B11" s="222" t="s">
         <v>374</v>
       </c>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="228"/>
-      <c r="H11" s="228"/>
-      <c r="I11" s="228"/>
-      <c r="J11" s="228"/>
-      <c r="K11" s="228"/>
-      <c r="L11" s="228"/>
-      <c r="M11" s="228"/>
-      <c r="N11" s="228"/>
-      <c r="O11" s="228"/>
-      <c r="P11" s="228"/>
-      <c r="Q11" s="229"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="223"/>
+      <c r="M11" s="223"/>
+      <c r="N11" s="223"/>
+      <c r="O11" s="223"/>
+      <c r="P11" s="223"/>
+      <c r="Q11" s="224"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="63"/>
@@ -25412,10 +25535,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="63"/>
-      <c r="B13" s="230"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="230"/>
-      <c r="E13" s="230"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="225"/>
+      <c r="E13" s="225"/>
       <c r="F13" s="63"/>
       <c r="G13" s="98"/>
       <c r="H13" s="98"/>
@@ -25481,6 +25604,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="B11:Q11"/>
@@ -25497,27 +25641,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M9:N9"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26215,10 +26338,10 @@
       <c r="G28"/>
       <c r="H28" s="99"/>
       <c r="I28" s="99"/>
-      <c r="N28" s="260" t="s">
+      <c r="N28" s="262" t="s">
         <v>417</v>
       </c>
-      <c r="O28" s="261"/>
+      <c r="O28" s="263"/>
       <c r="Q28" s="109" t="s">
         <v>420</v>
       </c>
@@ -26373,83 +26496,83 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="253" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="249" t="s">
+      <c r="C3" s="266" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="249" t="s">
+      <c r="D3" s="266" t="s">
         <v>304</v>
       </c>
-      <c r="E3" s="248" t="s">
+      <c r="E3" s="264" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="203"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="252"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="205"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
-      <c r="E4" s="252" t="s">
+      <c r="B4" s="238"/>
+      <c r="C4" s="267"/>
+      <c r="D4" s="267"/>
+      <c r="E4" s="270" t="s">
         <v>297</v>
       </c>
-      <c r="F4" s="233" t="s">
+      <c r="F4" s="228" t="s">
         <v>300</v>
       </c>
-      <c r="G4" s="233" t="s">
+      <c r="G4" s="228" t="s">
         <v>313</v>
       </c>
-      <c r="H4" s="233"/>
-      <c r="I4" s="233" t="s">
+      <c r="H4" s="228"/>
+      <c r="I4" s="228" t="s">
         <v>298</v>
       </c>
-      <c r="J4" s="233"/>
-      <c r="K4" s="233" t="s">
+      <c r="J4" s="228"/>
+      <c r="K4" s="228" t="s">
         <v>314</v>
       </c>
-      <c r="L4" s="233"/>
-      <c r="M4" s="233" t="s">
+      <c r="L4" s="228"/>
+      <c r="M4" s="228" t="s">
         <v>299</v>
       </c>
-      <c r="N4" s="233" t="s">
+      <c r="N4" s="228" t="s">
         <v>318</v>
       </c>
-      <c r="O4" s="225" t="s">
+      <c r="O4" s="218" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="40.5">
-      <c r="B5" s="205"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="253"/>
-      <c r="F5" s="245"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="268"/>
+      <c r="D5" s="268"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="272"/>
       <c r="G5" s="70" t="s">
         <v>349</v>
       </c>
       <c r="H5" s="70" t="s">
         <v>350</v>
       </c>
-      <c r="I5" s="245"/>
-      <c r="J5" s="245"/>
-      <c r="K5" s="245"/>
-      <c r="L5" s="245"/>
-      <c r="M5" s="245"/>
-      <c r="N5" s="245"/>
-      <c r="O5" s="226"/>
+      <c r="I5" s="272"/>
+      <c r="J5" s="272"/>
+      <c r="K5" s="272"/>
+      <c r="L5" s="272"/>
+      <c r="M5" s="272"/>
+      <c r="N5" s="272"/>
+      <c r="O5" s="219"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="206"/>
+      <c r="B6" s="254"/>
       <c r="C6" s="64" t="s">
         <v>326</v>
       </c>
@@ -26462,18 +26585,18 @@
       <c r="F6" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="G6" s="213" t="s">
+      <c r="G6" s="259" t="s">
         <v>331</v>
       </c>
-      <c r="H6" s="213"/>
-      <c r="I6" s="213" t="s">
+      <c r="H6" s="259"/>
+      <c r="I6" s="259" t="s">
         <v>331</v>
       </c>
-      <c r="J6" s="213"/>
-      <c r="K6" s="213" t="s">
+      <c r="J6" s="259"/>
+      <c r="K6" s="259" t="s">
         <v>331</v>
       </c>
-      <c r="L6" s="213"/>
+      <c r="L6" s="259"/>
       <c r="M6" s="52" t="s">
         <v>331</v>
       </c>
@@ -26485,7 +26608,7 @@
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="206"/>
+      <c r="B7" s="254"/>
       <c r="C7" s="64" t="s">
         <v>335</v>
       </c>
@@ -26504,14 +26627,14 @@
       <c r="H7" s="85" t="s">
         <v>344</v>
       </c>
-      <c r="I7" s="214" t="s">
+      <c r="I7" s="246" t="s">
         <v>320</v>
       </c>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214" t="s">
+      <c r="J7" s="246"/>
+      <c r="K7" s="246" t="s">
         <v>320</v>
       </c>
-      <c r="L7" s="214"/>
+      <c r="L7" s="246"/>
       <c r="M7" s="58" t="s">
         <v>320</v>
       </c>
@@ -26523,7 +26646,7 @@
       </c>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="206"/>
+      <c r="B8" s="254"/>
       <c r="C8" s="64" t="s">
         <v>328</v>
       </c>
@@ -26536,18 +26659,18 @@
       <c r="F8" s="52" t="s">
         <v>332</v>
       </c>
-      <c r="G8" s="233" t="s">
+      <c r="G8" s="228" t="s">
         <v>332</v>
       </c>
-      <c r="H8" s="233"/>
-      <c r="I8" s="233" t="s">
+      <c r="H8" s="228"/>
+      <c r="I8" s="228" t="s">
         <v>332</v>
       </c>
-      <c r="J8" s="233"/>
-      <c r="K8" s="233" t="s">
+      <c r="J8" s="228"/>
+      <c r="K8" s="228" t="s">
         <v>332</v>
       </c>
-      <c r="L8" s="233"/>
+      <c r="L8" s="228"/>
       <c r="M8" s="52" t="s">
         <v>332</v>
       </c>
@@ -26559,7 +26682,7 @@
       </c>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="206"/>
+      <c r="B9" s="254"/>
       <c r="C9" s="65" t="s">
         <v>351</v>
       </c>
@@ -26572,18 +26695,18 @@
       <c r="F9" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="G9" s="214" t="s">
+      <c r="G9" s="246" t="s">
         <v>320</v>
       </c>
-      <c r="H9" s="214"/>
-      <c r="I9" s="247" t="s">
+      <c r="H9" s="246"/>
+      <c r="I9" s="269" t="s">
         <v>325</v>
       </c>
-      <c r="J9" s="247"/>
-      <c r="K9" s="247" t="s">
+      <c r="J9" s="269"/>
+      <c r="K9" s="269" t="s">
         <v>325</v>
       </c>
-      <c r="L9" s="247"/>
+      <c r="L9" s="269"/>
       <c r="M9" s="60" t="s">
         <v>325</v>
       </c>
@@ -26595,7 +26718,7 @@
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="206"/>
+      <c r="B10" s="254"/>
       <c r="C10" s="65" t="s">
         <v>352</v>
       </c>
@@ -26614,14 +26737,14 @@
       <c r="H10" s="85" t="s">
         <v>345</v>
       </c>
-      <c r="I10" s="214" t="s">
+      <c r="I10" s="246" t="s">
         <v>320</v>
       </c>
-      <c r="J10" s="214"/>
-      <c r="K10" s="214" t="s">
+      <c r="J10" s="246"/>
+      <c r="K10" s="246" t="s">
         <v>320</v>
       </c>
-      <c r="L10" s="214"/>
+      <c r="L10" s="246"/>
       <c r="M10" s="58" t="s">
         <v>320</v>
       </c>
@@ -26633,7 +26756,7 @@
       </c>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="207"/>
+      <c r="B11" s="255"/>
       <c r="C11" s="68" t="s">
         <v>353</v>
       </c>
@@ -26646,18 +26769,18 @@
       <c r="F11" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="G11" s="246" t="s">
+      <c r="G11" s="265" t="s">
         <v>320</v>
       </c>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246" t="s">
+      <c r="H11" s="265"/>
+      <c r="I11" s="265" t="s">
         <v>320</v>
       </c>
-      <c r="J11" s="246"/>
-      <c r="K11" s="246" t="s">
+      <c r="J11" s="265"/>
+      <c r="K11" s="265" t="s">
         <v>320</v>
       </c>
-      <c r="L11" s="246"/>
+      <c r="L11" s="265"/>
       <c r="M11" s="62" t="s">
         <v>320</v>
       </c>
@@ -26670,6 +26793,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="E3:O3"/>
@@ -26686,18 +26821,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26724,29 +26847,29 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14">
-      <c r="B4" s="257" t="s">
+      <c r="B4" s="276" t="s">
         <v>376</v>
       </c>
-      <c r="C4" s="254" t="s">
+      <c r="C4" s="273" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="256" t="s">
+      <c r="D4" s="275" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="256"/>
-      <c r="M4" s="256"/>
-      <c r="N4" s="254"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="275"/>
+      <c r="I4" s="275"/>
+      <c r="J4" s="275"/>
+      <c r="K4" s="275"/>
+      <c r="L4" s="275"/>
+      <c r="M4" s="275"/>
+      <c r="N4" s="273"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="258"/>
-      <c r="C5" s="255"/>
+      <c r="B5" s="277"/>
+      <c r="C5" s="274"/>
       <c r="D5" s="70" t="s">
         <v>290</v>
       </c>
@@ -26782,7 +26905,7 @@
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="259" t="s">
+      <c r="B6" s="278" t="s">
         <v>377</v>
       </c>
       <c r="C6" s="81" t="s">
@@ -26823,7 +26946,7 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="206"/>
+      <c r="B7" s="254"/>
       <c r="C7" s="81" t="s">
         <v>300</v>
       </c>
@@ -26862,7 +26985,7 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="206"/>
+      <c r="B8" s="254"/>
       <c r="C8" s="81" t="s">
         <v>313</v>
       </c>
@@ -26901,7 +27024,7 @@
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="206"/>
+      <c r="B9" s="254"/>
       <c r="C9" s="81" t="s">
         <v>298</v>
       </c>
@@ -26940,7 +27063,7 @@
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="206"/>
+      <c r="B10" s="254"/>
       <c r="C10" s="81" t="s">
         <v>299</v>
       </c>
@@ -26979,7 +27102,7 @@
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="208" t="s">
+      <c r="B11" s="256" t="s">
         <v>378</v>
       </c>
       <c r="C11" s="90" t="s">
@@ -27020,7 +27143,7 @@
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="206"/>
+      <c r="B12" s="254"/>
       <c r="C12" s="81" t="s">
         <v>318</v>
       </c>
@@ -27059,7 +27182,7 @@
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="207"/>
+      <c r="B13" s="255"/>
       <c r="C13" s="82" t="s">
         <v>296</v>
       </c>
